--- a/input/compare/List2.xlsx
+++ b/input/compare/List2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\UHY-ClientList-WR\input\compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\UHY-ClientList-WR\input\read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA24C44D-D9B1-446C-88D6-43DE98FACF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE76CF-5963-48CE-830F-4D0EF175F2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55350" yWindow="5340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="21">
   <si>
     <t>Client number</t>
   </si>
@@ -48,7 +48,46 @@
     <t>Brahm</t>
   </si>
   <si>
+    <t>Kira</t>
+  </si>
+  <si>
     <t>Nera, Ben</t>
+  </si>
+  <si>
+    <t>Cassie Holder</t>
+  </si>
+  <si>
+    <t>Leonard Beard</t>
+  </si>
+  <si>
+    <t>Szymon Gould</t>
+  </si>
+  <si>
+    <t>Julius Jones</t>
+  </si>
+  <si>
+    <t>Tess Ramos</t>
+  </si>
+  <si>
+    <t>Joyce Gonzalez</t>
+  </si>
+  <si>
+    <t>Fabio Gates</t>
+  </si>
+  <si>
+    <t>Myla Rich</t>
+  </si>
+  <si>
+    <t>Robin Melton</t>
+  </si>
+  <si>
+    <t>Savannah Brooks</t>
+  </si>
+  <si>
+    <t>647342A</t>
+  </si>
+  <si>
+    <t>6574754B</t>
   </si>
 </sst>
 </file>
@@ -375,16 +414,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418:C469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -425,10 +465,5129 @@
         <v>991234</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>234325</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>234256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>457455</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>146564</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>311231</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>235346546</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>123456</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>646456432424</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>401928</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>245689</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>991234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>234325</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>234256</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>457455</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>146564</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>311231</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>235346546</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>123456</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>646456432424</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>401928</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>245689</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>991234</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>234325</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>234256</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>457455</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>146564</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>311231</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>235346546</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>123456</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>646456432424</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>401928</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>245689</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>991234</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>234325</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>234256</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>457455</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>146564</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>311231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>235346546</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>123456</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>646456432424</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>401928</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>245689</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>991234</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>234325</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>234256</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>457455</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>146564</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>311231</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>235346546</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>123456</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>646456432424</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>401928</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>245689</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>991234</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>234325</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>234256</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>457455</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>146564</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>311231</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>235346546</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>123456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>646456432424</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>401928</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>245689</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>991234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>234325</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>234256</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>457455</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>146564</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>311231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>235346546</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>123456</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>646456432424</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>401928</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>245689</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>991234</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>234325</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>234256</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>457455</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>146564</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>311231</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>235346546</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>123456</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>646456432424</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>401928</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>245689</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>991234</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>234325</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>234256</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>457455</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>146564</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>311231</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>235346546</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>123456</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>646456432424</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>401928</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>245689</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>991234</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>234325</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>234256</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>457455</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>146564</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>311231</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>235346546</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>123456</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>646456432424</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>401928</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>245689</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>991234</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>234325</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>234256</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>457455</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>146564</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>311231</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>235346546</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>123456</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>646456432424</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>401928</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>245689</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>991234</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>234325</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>234256</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>457455</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>146564</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>311231</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>235346546</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>123456</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>646456432424</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>401928</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>245689</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>991234</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>234325</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>234256</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>457455</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>146564</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>311231</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>235346546</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>123456</v>
+      </c>
+      <c r="B169" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>646456432424</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>401928</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>245689</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>991234</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>234325</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>234256</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>457455</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>146564</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>311231</v>
+      </c>
+      <c r="B179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>235346546</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>123456</v>
+      </c>
+      <c r="B182" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>646456432424</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>401928</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>245689</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>991234</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>234325</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>234256</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>457455</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>146564</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>311231</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>235346546</v>
+      </c>
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>123456</v>
+      </c>
+      <c r="B195" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>646456432424</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>401928</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>245689</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>991234</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>234325</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>234256</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>457455</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>146564</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>311231</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>235346546</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>123456</v>
+      </c>
+      <c r="B208" t="s">
+        <v>17</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>646456432424</v>
+      </c>
+      <c r="B209" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>401928</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>245689</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>991234</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>234325</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>234256</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>457455</v>
+      </c>
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>146564</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>311231</v>
+      </c>
+      <c r="B218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>235346546</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" t="s">
+        <v>16</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>123456</v>
+      </c>
+      <c r="B221" t="s">
+        <v>17</v>
+      </c>
+      <c r="C221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>646456432424</v>
+      </c>
+      <c r="B222" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>401928</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>245689</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>991234</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>234325</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>234256</v>
+      </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>457455</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>146564</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>311231</v>
+      </c>
+      <c r="B231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>235346546</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>123456</v>
+      </c>
+      <c r="B234" t="s">
+        <v>17</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>646456432424</v>
+      </c>
+      <c r="B235" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>401928</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>245689</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>991234</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>234325</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>234256</v>
+      </c>
+      <c r="B240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>457455</v>
+      </c>
+      <c r="B241" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>146564</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>311231</v>
+      </c>
+      <c r="B244" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>235346546</v>
+      </c>
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>123456</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>646456432424</v>
+      </c>
+      <c r="B248" t="s">
+        <v>18</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>401928</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>245689</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>991234</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>234325</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>234256</v>
+      </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>457455</v>
+      </c>
+      <c r="B254" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>146564</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>19</v>
+      </c>
+      <c r="B256" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>311231</v>
+      </c>
+      <c r="B257" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>235346546</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>20</v>
+      </c>
+      <c r="B259" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>123456</v>
+      </c>
+      <c r="B260" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>646456432424</v>
+      </c>
+      <c r="B261" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>401928</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>245689</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>991234</v>
+      </c>
+      <c r="B264" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>234325</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>234256</v>
+      </c>
+      <c r="B266" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>457455</v>
+      </c>
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>146564</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>19</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>311231</v>
+      </c>
+      <c r="B270" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>235346546</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>20</v>
+      </c>
+      <c r="B272" t="s">
+        <v>16</v>
+      </c>
+      <c r="C272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>123456</v>
+      </c>
+      <c r="B273" t="s">
+        <v>17</v>
+      </c>
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>646456432424</v>
+      </c>
+      <c r="B274" t="s">
+        <v>18</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>401928</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>245689</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>991234</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>234325</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>234256</v>
+      </c>
+      <c r="B279" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>457455</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>146564</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>19</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>311231</v>
+      </c>
+      <c r="B283" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>235346546</v>
+      </c>
+      <c r="B284" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>20</v>
+      </c>
+      <c r="B285" t="s">
+        <v>16</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>123456</v>
+      </c>
+      <c r="B286" t="s">
+        <v>17</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>646456432424</v>
+      </c>
+      <c r="B287" t="s">
+        <v>18</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>401928</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>245689</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>991234</v>
+      </c>
+      <c r="B290" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>234325</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>234256</v>
+      </c>
+      <c r="B292" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>457455</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>146564</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>19</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>311231</v>
+      </c>
+      <c r="B296" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>235346546</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>20</v>
+      </c>
+      <c r="B298" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>123456</v>
+      </c>
+      <c r="B299" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>646456432424</v>
+      </c>
+      <c r="B300" t="s">
+        <v>18</v>
+      </c>
+      <c r="C300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>401928</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>245689</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>991234</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>234325</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>234256</v>
+      </c>
+      <c r="B305" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>457455</v>
+      </c>
+      <c r="B306" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>146564</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>19</v>
+      </c>
+      <c r="B308" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>311231</v>
+      </c>
+      <c r="B309" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>235346546</v>
+      </c>
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>20</v>
+      </c>
+      <c r="B311" t="s">
+        <v>16</v>
+      </c>
+      <c r="C311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>123456</v>
+      </c>
+      <c r="B312" t="s">
+        <v>17</v>
+      </c>
+      <c r="C312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>646456432424</v>
+      </c>
+      <c r="B313" t="s">
+        <v>18</v>
+      </c>
+      <c r="C313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>401928</v>
+      </c>
+      <c r="B314" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>245689</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>991234</v>
+      </c>
+      <c r="B316" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>234325</v>
+      </c>
+      <c r="B317" t="s">
+        <v>9</v>
+      </c>
+      <c r="C317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>234256</v>
+      </c>
+      <c r="B318" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>457455</v>
+      </c>
+      <c r="B319" t="s">
+        <v>11</v>
+      </c>
+      <c r="C319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>146564</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>311231</v>
+      </c>
+      <c r="B322" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>235346546</v>
+      </c>
+      <c r="B323" t="s">
+        <v>15</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>20</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>123456</v>
+      </c>
+      <c r="B325" t="s">
+        <v>17</v>
+      </c>
+      <c r="C325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>646456432424</v>
+      </c>
+      <c r="B326" t="s">
+        <v>18</v>
+      </c>
+      <c r="C326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>401928</v>
+      </c>
+      <c r="B327" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>245689</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>991234</v>
+      </c>
+      <c r="B329" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>234325</v>
+      </c>
+      <c r="B330" t="s">
+        <v>9</v>
+      </c>
+      <c r="C330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>234256</v>
+      </c>
+      <c r="B331" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>457455</v>
+      </c>
+      <c r="B332" t="s">
+        <v>11</v>
+      </c>
+      <c r="C332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>146564</v>
+      </c>
+      <c r="B333" t="s">
+        <v>12</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>19</v>
+      </c>
+      <c r="B334" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>311231</v>
+      </c>
+      <c r="B335" t="s">
+        <v>14</v>
+      </c>
+      <c r="C335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>235346546</v>
+      </c>
+      <c r="B336" t="s">
+        <v>15</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>20</v>
+      </c>
+      <c r="B337" t="s">
+        <v>16</v>
+      </c>
+      <c r="C337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>123456</v>
+      </c>
+      <c r="B338" t="s">
+        <v>17</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>646456432424</v>
+      </c>
+      <c r="B339" t="s">
+        <v>18</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>401928</v>
+      </c>
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
+      <c r="C340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>245689</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>991234</v>
+      </c>
+      <c r="B342" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>234325</v>
+      </c>
+      <c r="B343" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>234256</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>457455</v>
+      </c>
+      <c r="B345" t="s">
+        <v>11</v>
+      </c>
+      <c r="C345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>146564</v>
+      </c>
+      <c r="B346" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>19</v>
+      </c>
+      <c r="B347" t="s">
+        <v>13</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>311231</v>
+      </c>
+      <c r="B348" t="s">
+        <v>14</v>
+      </c>
+      <c r="C348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>235346546</v>
+      </c>
+      <c r="B349" t="s">
+        <v>15</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>20</v>
+      </c>
+      <c r="B350" t="s">
+        <v>16</v>
+      </c>
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>123456</v>
+      </c>
+      <c r="B351" t="s">
+        <v>17</v>
+      </c>
+      <c r="C351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>646456432424</v>
+      </c>
+      <c r="B352" t="s">
+        <v>18</v>
+      </c>
+      <c r="C352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>401928</v>
+      </c>
+      <c r="B353" t="s">
+        <v>3</v>
+      </c>
+      <c r="C353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>245689</v>
+      </c>
+      <c r="B354" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>991234</v>
+      </c>
+      <c r="B355" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>234325</v>
+      </c>
+      <c r="B356" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>234256</v>
+      </c>
+      <c r="B357" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>457455</v>
+      </c>
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>146564</v>
+      </c>
+      <c r="B359" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>19</v>
+      </c>
+      <c r="B360" t="s">
+        <v>13</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>311231</v>
+      </c>
+      <c r="B361" t="s">
+        <v>14</v>
+      </c>
+      <c r="C361" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>235346546</v>
+      </c>
+      <c r="B362" t="s">
+        <v>15</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>20</v>
+      </c>
+      <c r="B363" t="s">
+        <v>16</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>123456</v>
+      </c>
+      <c r="B364" t="s">
+        <v>17</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>646456432424</v>
+      </c>
+      <c r="B365" t="s">
+        <v>18</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>401928</v>
+      </c>
+      <c r="B366" t="s">
+        <v>3</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>245689</v>
+      </c>
+      <c r="B367" t="s">
+        <v>4</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>991234</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>234325</v>
+      </c>
+      <c r="B369" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>234256</v>
+      </c>
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>457455</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>146564</v>
+      </c>
+      <c r="B372" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>19</v>
+      </c>
+      <c r="B373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>311231</v>
+      </c>
+      <c r="B374" t="s">
+        <v>14</v>
+      </c>
+      <c r="C374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>235346546</v>
+      </c>
+      <c r="B375" t="s">
+        <v>15</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>20</v>
+      </c>
+      <c r="B376" t="s">
+        <v>16</v>
+      </c>
+      <c r="C376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>123456</v>
+      </c>
+      <c r="B377" t="s">
+        <v>17</v>
+      </c>
+      <c r="C377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>646456432424</v>
+      </c>
+      <c r="B378" t="s">
+        <v>18</v>
+      </c>
+      <c r="C378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>401928</v>
+      </c>
+      <c r="B379" t="s">
+        <v>3</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>245689</v>
+      </c>
+      <c r="B380" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>991234</v>
+      </c>
+      <c r="B381" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>234325</v>
+      </c>
+      <c r="B382" t="s">
+        <v>9</v>
+      </c>
+      <c r="C382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>234256</v>
+      </c>
+      <c r="B383" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>457455</v>
+      </c>
+      <c r="B384" t="s">
+        <v>11</v>
+      </c>
+      <c r="C384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>146564</v>
+      </c>
+      <c r="B385" t="s">
+        <v>12</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>19</v>
+      </c>
+      <c r="B386" t="s">
+        <v>13</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>311231</v>
+      </c>
+      <c r="B387" t="s">
+        <v>14</v>
+      </c>
+      <c r="C387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>235346546</v>
+      </c>
+      <c r="B388" t="s">
+        <v>15</v>
+      </c>
+      <c r="C388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>20</v>
+      </c>
+      <c r="B389" t="s">
+        <v>16</v>
+      </c>
+      <c r="C389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>123456</v>
+      </c>
+      <c r="B390" t="s">
+        <v>17</v>
+      </c>
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>646456432424</v>
+      </c>
+      <c r="B391" t="s">
+        <v>18</v>
+      </c>
+      <c r="C391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>401928</v>
+      </c>
+      <c r="B392" t="s">
+        <v>3</v>
+      </c>
+      <c r="C392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>245689</v>
+      </c>
+      <c r="B393" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>991234</v>
+      </c>
+      <c r="B394" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>234325</v>
+      </c>
+      <c r="B395" t="s">
+        <v>9</v>
+      </c>
+      <c r="C395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>234256</v>
+      </c>
+      <c r="B396" t="s">
+        <v>10</v>
+      </c>
+      <c r="C396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>457455</v>
+      </c>
+      <c r="B397" t="s">
+        <v>11</v>
+      </c>
+      <c r="C397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>146564</v>
+      </c>
+      <c r="B398" t="s">
+        <v>12</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>19</v>
+      </c>
+      <c r="B399" t="s">
+        <v>13</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>311231</v>
+      </c>
+      <c r="B400" t="s">
+        <v>14</v>
+      </c>
+      <c r="C400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>235346546</v>
+      </c>
+      <c r="B401" t="s">
+        <v>15</v>
+      </c>
+      <c r="C401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>20</v>
+      </c>
+      <c r="B402" t="s">
+        <v>16</v>
+      </c>
+      <c r="C402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>123456</v>
+      </c>
+      <c r="B403" t="s">
+        <v>17</v>
+      </c>
+      <c r="C403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>646456432424</v>
+      </c>
+      <c r="B404" t="s">
+        <v>18</v>
+      </c>
+      <c r="C404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>401928</v>
+      </c>
+      <c r="B405" t="s">
+        <v>3</v>
+      </c>
+      <c r="C405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>245689</v>
+      </c>
+      <c r="B406" t="s">
+        <v>4</v>
+      </c>
+      <c r="C406" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>991234</v>
+      </c>
+      <c r="B407" t="s">
+        <v>8</v>
+      </c>
+      <c r="C407" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>234325</v>
+      </c>
+      <c r="B408" t="s">
+        <v>9</v>
+      </c>
+      <c r="C408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>234256</v>
+      </c>
+      <c r="B409" t="s">
+        <v>10</v>
+      </c>
+      <c r="C409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>457455</v>
+      </c>
+      <c r="B410" t="s">
+        <v>11</v>
+      </c>
+      <c r="C410" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>146564</v>
+      </c>
+      <c r="B411" t="s">
+        <v>12</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>19</v>
+      </c>
+      <c r="B412" t="s">
+        <v>13</v>
+      </c>
+      <c r="C412" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>311231</v>
+      </c>
+      <c r="B413" t="s">
+        <v>14</v>
+      </c>
+      <c r="C413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>235346546</v>
+      </c>
+      <c r="B414" t="s">
+        <v>15</v>
+      </c>
+      <c r="C414" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>20</v>
+      </c>
+      <c r="B415" t="s">
+        <v>16</v>
+      </c>
+      <c r="C415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>123456</v>
+      </c>
+      <c r="B416" t="s">
+        <v>17</v>
+      </c>
+      <c r="C416" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>646456432424</v>
+      </c>
+      <c r="B417" t="s">
+        <v>18</v>
+      </c>
+      <c r="C417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>401928</v>
+      </c>
+      <c r="B418" t="s">
+        <v>3</v>
+      </c>
+      <c r="C418" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>245689</v>
+      </c>
+      <c r="B419" t="s">
+        <v>4</v>
+      </c>
+      <c r="C419" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>991234</v>
+      </c>
+      <c r="B420" t="s">
+        <v>8</v>
+      </c>
+      <c r="C420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>234325</v>
+      </c>
+      <c r="B421" t="s">
+        <v>9</v>
+      </c>
+      <c r="C421" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>234256</v>
+      </c>
+      <c r="B422" t="s">
+        <v>10</v>
+      </c>
+      <c r="C422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>457455</v>
+      </c>
+      <c r="B423" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>146564</v>
+      </c>
+      <c r="B424" t="s">
+        <v>12</v>
+      </c>
+      <c r="C424" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>19</v>
+      </c>
+      <c r="B425" t="s">
+        <v>13</v>
+      </c>
+      <c r="C425" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>311231</v>
+      </c>
+      <c r="B426" t="s">
+        <v>14</v>
+      </c>
+      <c r="C426" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>235346546</v>
+      </c>
+      <c r="B427" t="s">
+        <v>15</v>
+      </c>
+      <c r="C427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>20</v>
+      </c>
+      <c r="B428" t="s">
+        <v>16</v>
+      </c>
+      <c r="C428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>123456</v>
+      </c>
+      <c r="B429" t="s">
+        <v>17</v>
+      </c>
+      <c r="C429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>646456432424</v>
+      </c>
+      <c r="B430" t="s">
+        <v>18</v>
+      </c>
+      <c r="C430" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>401928</v>
+      </c>
+      <c r="B431" t="s">
+        <v>3</v>
+      </c>
+      <c r="C431" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>245689</v>
+      </c>
+      <c r="B432" t="s">
+        <v>4</v>
+      </c>
+      <c r="C432" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>991234</v>
+      </c>
+      <c r="B433" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>234325</v>
+      </c>
+      <c r="B434" t="s">
+        <v>9</v>
+      </c>
+      <c r="C434" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>234256</v>
+      </c>
+      <c r="B435" t="s">
+        <v>10</v>
+      </c>
+      <c r="C435" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>457455</v>
+      </c>
+      <c r="B436" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>146564</v>
+      </c>
+      <c r="B437" t="s">
+        <v>12</v>
+      </c>
+      <c r="C437" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>19</v>
+      </c>
+      <c r="B438" t="s">
+        <v>13</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>311231</v>
+      </c>
+      <c r="B439" t="s">
+        <v>14</v>
+      </c>
+      <c r="C439" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>235346546</v>
+      </c>
+      <c r="B440" t="s">
+        <v>15</v>
+      </c>
+      <c r="C440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>20</v>
+      </c>
+      <c r="B441" t="s">
+        <v>16</v>
+      </c>
+      <c r="C441" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>123456</v>
+      </c>
+      <c r="B442" t="s">
+        <v>17</v>
+      </c>
+      <c r="C442" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>646456432424</v>
+      </c>
+      <c r="B443" t="s">
+        <v>18</v>
+      </c>
+      <c r="C443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>401928</v>
+      </c>
+      <c r="B444" t="s">
+        <v>3</v>
+      </c>
+      <c r="C444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>245689</v>
+      </c>
+      <c r="B445" t="s">
+        <v>4</v>
+      </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>991234</v>
+      </c>
+      <c r="B446" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>234325</v>
+      </c>
+      <c r="B447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>234256</v>
+      </c>
+      <c r="B448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C448" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>457455</v>
+      </c>
+      <c r="B449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>146564</v>
+      </c>
+      <c r="B450" t="s">
+        <v>12</v>
+      </c>
+      <c r="C450" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>19</v>
+      </c>
+      <c r="B451" t="s">
+        <v>13</v>
+      </c>
+      <c r="C451" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>311231</v>
+      </c>
+      <c r="B452" t="s">
+        <v>14</v>
+      </c>
+      <c r="C452" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>235346546</v>
+      </c>
+      <c r="B453" t="s">
+        <v>15</v>
+      </c>
+      <c r="C453" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>20</v>
+      </c>
+      <c r="B454" t="s">
+        <v>16</v>
+      </c>
+      <c r="C454" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>123456</v>
+      </c>
+      <c r="B455" t="s">
+        <v>17</v>
+      </c>
+      <c r="C455" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>646456432424</v>
+      </c>
+      <c r="B456" t="s">
+        <v>18</v>
+      </c>
+      <c r="C456" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>401928</v>
+      </c>
+      <c r="B457" t="s">
+        <v>3</v>
+      </c>
+      <c r="C457" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>245689</v>
+      </c>
+      <c r="B458" t="s">
+        <v>4</v>
+      </c>
+      <c r="C458" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>991234</v>
+      </c>
+      <c r="B459" t="s">
+        <v>8</v>
+      </c>
+      <c r="C459" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>234325</v>
+      </c>
+      <c r="B460" t="s">
+        <v>9</v>
+      </c>
+      <c r="C460" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>234256</v>
+      </c>
+      <c r="B461" t="s">
+        <v>10</v>
+      </c>
+      <c r="C461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>457455</v>
+      </c>
+      <c r="B462" t="s">
+        <v>11</v>
+      </c>
+      <c r="C462" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>146564</v>
+      </c>
+      <c r="B463" t="s">
+        <v>12</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>19</v>
+      </c>
+      <c r="B464" t="s">
+        <v>13</v>
+      </c>
+      <c r="C464" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>311231</v>
+      </c>
+      <c r="B465" t="s">
+        <v>14</v>
+      </c>
+      <c r="C465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>235346546</v>
+      </c>
+      <c r="B466" t="s">
+        <v>15</v>
+      </c>
+      <c r="C466" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>20</v>
+      </c>
+      <c r="B467" t="s">
+        <v>16</v>
+      </c>
+      <c r="C467" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>123456</v>
+      </c>
+      <c r="B468" t="s">
+        <v>17</v>
+      </c>
+      <c r="C468" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>646456432424</v>
+      </c>
+      <c r="B469" t="s">
+        <v>18</v>
+      </c>
+      <c r="C469" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>